--- a/TVELtest/TVELtest/bin/Debug/Табличные выводы/ОРПО (Средний LAR(Det))/ ПО ЭХЗ ОПРО_LAR (Средний LAR(Det))(01.09.2015 23-59-49).xlsx
+++ b/TVELtest/TVELtest/bin/Debug/Табличные выводы/ОРПО (Средний LAR(Det))/ ПО ЭХЗ ОПРО_LAR (Средний LAR(Det))(01.09.2015 23-59-49).xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sergey\Desktop\TVEL_Project\TVELtest\TVELtest\bin\Debug\Табличные выводы\ОРПО (Средний LAR(Det))\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="9570"/>
   </bookViews>
@@ -16,8 +11,8 @@
     <sheet name="Женщины" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -87,7 +82,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fonts count="1">
     <font>
       <sz val="12"/>
@@ -162,7 +157,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -171,6 +166,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -231,7 +234,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -266,7 +269,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -443,17 +446,19 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
@@ -484,22 +489,22 @@
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="4">
         <v>3.2712817027638756E-5</v>
       </c>
-      <c r="C2" s="2">
-        <v>0</v>
-      </c>
-      <c r="D2" s="2">
+      <c r="C2" s="4">
+        <v>0</v>
+      </c>
+      <c r="D2" s="4">
         <v>3.2712817027638756E-5</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="4">
         <v>8.0436923296778781E-5</v>
       </c>
-      <c r="F2" s="2">
-        <v>0</v>
-      </c>
-      <c r="G2" s="2">
+      <c r="F2" s="4">
+        <v>0</v>
+      </c>
+      <c r="G2" s="4">
         <v>8.0436923296778781E-5</v>
       </c>
     </row>
@@ -507,22 +512,22 @@
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="4">
         <v>3.2273369127523701E-5</v>
       </c>
-      <c r="C3" s="2">
-        <v>0</v>
-      </c>
-      <c r="D3" s="2">
+      <c r="C3" s="4">
+        <v>0</v>
+      </c>
+      <c r="D3" s="4">
         <v>3.2273369127523701E-5</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="4">
         <v>6.9040137361092068E-5</v>
       </c>
-      <c r="F3" s="2">
-        <v>0</v>
-      </c>
-      <c r="G3" s="2">
+      <c r="F3" s="4">
+        <v>0</v>
+      </c>
+      <c r="G3" s="4">
         <v>6.9040137361092068E-5</v>
       </c>
     </row>
@@ -530,22 +535,22 @@
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="4">
         <v>2.6592250782609752E-5</v>
       </c>
-      <c r="C4" s="2">
-        <v>0</v>
-      </c>
-      <c r="D4" s="2">
+      <c r="C4" s="4">
+        <v>0</v>
+      </c>
+      <c r="D4" s="4">
         <v>2.6592250782609752E-5</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="4">
         <v>5.062355950443026E-5</v>
       </c>
-      <c r="F4" s="2">
-        <v>0</v>
-      </c>
-      <c r="G4" s="2">
+      <c r="F4" s="4">
+        <v>0</v>
+      </c>
+      <c r="G4" s="4">
         <v>5.062355950443026E-5</v>
       </c>
     </row>
@@ -553,22 +558,22 @@
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="4">
         <v>2.299556915808989E-5</v>
       </c>
-      <c r="C5" s="2">
-        <v>0</v>
-      </c>
-      <c r="D5" s="2">
+      <c r="C5" s="4">
+        <v>0</v>
+      </c>
+      <c r="D5" s="4">
         <v>2.299556915808989E-5</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="4">
         <v>4.444363802118363E-5</v>
       </c>
-      <c r="F5" s="2">
-        <v>0</v>
-      </c>
-      <c r="G5" s="2">
+      <c r="F5" s="4">
+        <v>0</v>
+      </c>
+      <c r="G5" s="4">
         <v>4.444363802118363E-5</v>
       </c>
     </row>
@@ -576,22 +581,22 @@
       <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="4">
         <v>1.9391595870873369E-5</v>
       </c>
-      <c r="C6" s="2">
-        <v>0</v>
-      </c>
-      <c r="D6" s="2">
+      <c r="C6" s="4">
+        <v>0</v>
+      </c>
+      <c r="D6" s="4">
         <v>1.9391595870873369E-5</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="4">
         <v>3.2824303812922434E-5</v>
       </c>
-      <c r="F6" s="2">
-        <v>0</v>
-      </c>
-      <c r="G6" s="2">
+      <c r="F6" s="4">
+        <v>0</v>
+      </c>
+      <c r="G6" s="4">
         <v>3.2824303812922434E-5</v>
       </c>
     </row>
@@ -599,22 +604,22 @@
       <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="4">
         <v>1.6370089275738004E-5</v>
       </c>
-      <c r="C7" s="2">
-        <v>0</v>
-      </c>
-      <c r="D7" s="2">
+      <c r="C7" s="4">
+        <v>0</v>
+      </c>
+      <c r="D7" s="4">
         <v>1.6370089275738004E-5</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="4">
         <v>2.9137401542894423E-5</v>
       </c>
-      <c r="F7" s="2">
-        <v>0</v>
-      </c>
-      <c r="G7" s="2">
+      <c r="F7" s="4">
+        <v>0</v>
+      </c>
+      <c r="G7" s="4">
         <v>2.9137401542894423E-5</v>
       </c>
     </row>
@@ -622,22 +627,22 @@
       <c r="A8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="4">
         <v>1.2909593047246698E-5</v>
       </c>
-      <c r="C8" s="2">
-        <v>0</v>
-      </c>
-      <c r="D8" s="2">
+      <c r="C8" s="4">
+        <v>0</v>
+      </c>
+      <c r="D8" s="4">
         <v>1.2909593047246698E-5</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="4">
         <v>2.1703335215541142E-5</v>
       </c>
-      <c r="F8" s="2">
-        <v>0</v>
-      </c>
-      <c r="G8" s="2">
+      <c r="F8" s="4">
+        <v>0</v>
+      </c>
+      <c r="G8" s="4">
         <v>2.1703335215541142E-5</v>
       </c>
     </row>
@@ -645,22 +650,22 @@
       <c r="A9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="4">
         <v>1.0641215514850461E-5</v>
       </c>
-      <c r="C9" s="2">
-        <v>0</v>
-      </c>
-      <c r="D9" s="2">
+      <c r="C9" s="4">
+        <v>0</v>
+      </c>
+      <c r="D9" s="4">
         <v>1.0641215514850461E-5</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="4">
         <v>2.0369787715043253E-5</v>
       </c>
-      <c r="F9" s="2">
-        <v>0</v>
-      </c>
-      <c r="G9" s="2">
+      <c r="F9" s="4">
+        <v>0</v>
+      </c>
+      <c r="G9" s="4">
         <v>2.0369787715043253E-5</v>
       </c>
     </row>
@@ -668,22 +673,22 @@
       <c r="A10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="4">
         <v>7.0600960865699904E-6</v>
       </c>
-      <c r="C10" s="2">
-        <v>0</v>
-      </c>
-      <c r="D10" s="2">
+      <c r="C10" s="4">
+        <v>0</v>
+      </c>
+      <c r="D10" s="4">
         <v>7.0600960865699904E-6</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="4">
         <v>1.0142753162234498E-5</v>
       </c>
-      <c r="F10" s="2">
-        <v>0</v>
-      </c>
-      <c r="G10" s="2">
+      <c r="F10" s="4">
+        <v>0</v>
+      </c>
+      <c r="G10" s="4">
         <v>1.0142753162234498E-5</v>
       </c>
     </row>
@@ -691,22 +696,22 @@
       <c r="A11" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="4">
         <v>5.4101744480005742E-6</v>
       </c>
-      <c r="C11" s="2">
-        <v>0</v>
-      </c>
-      <c r="D11" s="2">
+      <c r="C11" s="4">
+        <v>0</v>
+      </c>
+      <c r="D11" s="4">
         <v>5.4101744480005742E-6</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="4">
         <v>7.3810581554970816E-6</v>
       </c>
-      <c r="F11" s="2">
-        <v>0</v>
-      </c>
-      <c r="G11" s="2">
+      <c r="F11" s="4">
+        <v>0</v>
+      </c>
+      <c r="G11" s="4">
         <v>7.3810581554970816E-6</v>
       </c>
     </row>
@@ -714,22 +719,22 @@
       <c r="A12" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="4">
         <v>3.9899671997783149E-6</v>
       </c>
-      <c r="C12" s="2">
-        <v>0</v>
-      </c>
-      <c r="D12" s="2">
+      <c r="C12" s="4">
+        <v>0</v>
+      </c>
+      <c r="D12" s="4">
         <v>3.9899671997783149E-6</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="4">
         <v>3.9899671997783149E-6</v>
       </c>
-      <c r="F12" s="2">
-        <v>0</v>
-      </c>
-      <c r="G12" s="2">
+      <c r="F12" s="4">
+        <v>0</v>
+      </c>
+      <c r="G12" s="4">
         <v>3.9899671997783149E-6</v>
       </c>
     </row>
@@ -737,334 +742,340 @@
       <c r="A13" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="5">
         <v>2.0780000000000001E-5</v>
       </c>
-      <c r="C13" s="3">
-        <v>0</v>
-      </c>
-      <c r="D13" s="3">
+      <c r="C13" s="5">
+        <v>0</v>
+      </c>
+      <c r="D13" s="5">
         <v>2.0780000000000001E-5</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="5">
         <v>3.9709999999999998E-5</v>
       </c>
-      <c r="F13" s="3">
-        <v>0</v>
-      </c>
-      <c r="G13" s="3">
+      <c r="F13" s="5">
+        <v>0</v>
+      </c>
+      <c r="G13" s="5">
         <v>3.9709999999999998E-5</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="16384" width="8.88671875" style="7"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.75" thickTop="1">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="4">
         <v>4.7222480792251968E-5</v>
       </c>
-      <c r="C2" s="2">
-        <v>0</v>
-      </c>
-      <c r="D2" s="2">
+      <c r="C2" s="4">
+        <v>0</v>
+      </c>
+      <c r="D2" s="4">
         <v>4.7222480792251968E-5</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="4">
         <v>8.054608129485866E-5</v>
       </c>
-      <c r="F2" s="2">
-        <v>0</v>
-      </c>
-      <c r="G2" s="2">
+      <c r="F2" s="4">
+        <v>0</v>
+      </c>
+      <c r="G2" s="4">
         <v>8.054608129485866E-5</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="4">
         <v>3.762484536051588E-5</v>
       </c>
-      <c r="C3" s="2">
-        <v>0</v>
-      </c>
-      <c r="D3" s="2">
+      <c r="C3" s="4">
+        <v>0</v>
+      </c>
+      <c r="D3" s="4">
         <v>3.762484536051588E-5</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="4">
         <v>5.6923148480032486E-5</v>
       </c>
-      <c r="F3" s="2">
-        <v>0</v>
-      </c>
-      <c r="G3" s="2">
+      <c r="F3" s="4">
+        <v>0</v>
+      </c>
+      <c r="G3" s="4">
         <v>5.6923148480032486E-5</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="4">
         <v>3.111824544723862E-5</v>
       </c>
-      <c r="C4" s="2">
-        <v>0</v>
-      </c>
-      <c r="D4" s="2">
+      <c r="C4" s="4">
+        <v>0</v>
+      </c>
+      <c r="D4" s="4">
         <v>3.111824544723862E-5</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="4">
         <v>4.9071946130129698E-5</v>
       </c>
-      <c r="F4" s="2">
-        <v>0</v>
-      </c>
-      <c r="G4" s="2">
+      <c r="F4" s="4">
+        <v>0</v>
+      </c>
+      <c r="G4" s="4">
         <v>4.9071946130129698E-5</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="4">
         <v>2.6781662030527377E-5</v>
       </c>
-      <c r="C5" s="2">
-        <v>0</v>
-      </c>
-      <c r="D5" s="2">
+      <c r="C5" s="4">
+        <v>0</v>
+      </c>
+      <c r="D5" s="4">
         <v>2.6781662030527377E-5</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="4">
         <v>4.0162673720670391E-5</v>
       </c>
-      <c r="F5" s="2">
-        <v>0</v>
-      </c>
-      <c r="G5" s="2">
+      <c r="F5" s="4">
+        <v>0</v>
+      </c>
+      <c r="G5" s="4">
         <v>4.0162673720670391E-5</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="4">
         <v>2.601222803440814E-5</v>
       </c>
-      <c r="C6" s="2">
-        <v>0</v>
-      </c>
-      <c r="D6" s="2">
+      <c r="C6" s="4">
+        <v>0</v>
+      </c>
+      <c r="D6" s="4">
         <v>2.601222803440814E-5</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="4">
         <v>3.8457968057303963E-5</v>
       </c>
-      <c r="F6" s="2">
-        <v>0</v>
-      </c>
-      <c r="G6" s="2">
+      <c r="F6" s="4">
+        <v>0</v>
+      </c>
+      <c r="G6" s="4">
         <v>3.8457968057303963E-5</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="4">
         <v>2.1835259652393936E-5</v>
       </c>
-      <c r="C7" s="2">
-        <v>0</v>
-      </c>
-      <c r="D7" s="2">
+      <c r="C7" s="4">
+        <v>0</v>
+      </c>
+      <c r="D7" s="4">
         <v>2.1835259652393936E-5</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="4">
         <v>3.4439072805209676E-5</v>
       </c>
-      <c r="F7" s="2">
-        <v>0</v>
-      </c>
-      <c r="G7" s="2">
+      <c r="F7" s="4">
+        <v>0</v>
+      </c>
+      <c r="G7" s="4">
         <v>3.4439072805209676E-5</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="4">
         <v>1.7299471875387694E-5</v>
       </c>
-      <c r="C8" s="2">
-        <v>0</v>
-      </c>
-      <c r="D8" s="2">
+      <c r="C8" s="4">
+        <v>0</v>
+      </c>
+      <c r="D8" s="4">
         <v>1.7299471875387694E-5</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="4">
         <v>2.6298611580367056E-5</v>
       </c>
-      <c r="F8" s="2">
-        <v>0</v>
-      </c>
-      <c r="G8" s="2">
+      <c r="F8" s="4">
+        <v>0</v>
+      </c>
+      <c r="G8" s="4">
         <v>2.6298611580367056E-5</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="4">
         <v>1.1814979226350267E-5</v>
       </c>
-      <c r="C9" s="2">
-        <v>0</v>
-      </c>
-      <c r="D9" s="2">
+      <c r="C9" s="4">
+        <v>0</v>
+      </c>
+      <c r="D9" s="4">
         <v>1.1814979226350267E-5</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="4">
         <v>1.7846252753040318E-5</v>
       </c>
-      <c r="F9" s="2">
-        <v>0</v>
-      </c>
-      <c r="G9" s="2">
+      <c r="F9" s="4">
+        <v>0</v>
+      </c>
+      <c r="G9" s="4">
         <v>1.7846252753040318E-5</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="4">
         <v>8.7587187598778688E-6</v>
       </c>
-      <c r="C10" s="2">
-        <v>0</v>
-      </c>
-      <c r="D10" s="2">
+      <c r="C10" s="4">
+        <v>0</v>
+      </c>
+      <c r="D10" s="4">
         <v>8.7587187598778688E-6</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="4">
         <v>1.2433074302296449E-5</v>
       </c>
-      <c r="F10" s="2">
-        <v>0</v>
-      </c>
-      <c r="G10" s="2">
+      <c r="F10" s="4">
+        <v>0</v>
+      </c>
+      <c r="G10" s="4">
         <v>1.2433074302296449E-5</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="4">
         <v>8.0862518767357382E-6</v>
       </c>
-      <c r="C11" s="2">
-        <v>0</v>
-      </c>
-      <c r="D11" s="2">
+      <c r="C11" s="4">
+        <v>0</v>
+      </c>
+      <c r="D11" s="4">
         <v>8.0862518767357382E-6</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="4">
         <v>6.6322712378743986E-6</v>
       </c>
-      <c r="F11" s="2">
-        <v>0</v>
-      </c>
-      <c r="G11" s="2">
+      <c r="F11" s="4">
+        <v>0</v>
+      </c>
+      <c r="G11" s="4">
         <v>6.6322712378743986E-6</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="2">
-        <v>0</v>
-      </c>
-      <c r="C12" s="2">
-        <v>0</v>
-      </c>
-      <c r="D12" s="2">
-        <v>0</v>
-      </c>
-      <c r="E12" s="2">
-        <v>0</v>
-      </c>
-      <c r="F12" s="2">
-        <v>0</v>
-      </c>
-      <c r="G12" s="2">
+      <c r="B12" s="4">
+        <v>0</v>
+      </c>
+      <c r="C12" s="4">
+        <v>0</v>
+      </c>
+      <c r="D12" s="4">
+        <v>0</v>
+      </c>
+      <c r="E12" s="4">
+        <v>0</v>
+      </c>
+      <c r="F12" s="4">
+        <v>0</v>
+      </c>
+      <c r="G12" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="5">
         <v>2.3430000000000001E-5</v>
       </c>
-      <c r="C13" s="3">
-        <v>0</v>
-      </c>
-      <c r="D13" s="3">
+      <c r="C13" s="5">
+        <v>0</v>
+      </c>
+      <c r="D13" s="5">
         <v>2.3430000000000001E-5</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="5">
         <v>3.5760000000000003E-5</v>
       </c>
-      <c r="F13" s="3">
-        <v>0</v>
-      </c>
-      <c r="G13" s="3">
+      <c r="F13" s="5">
+        <v>0</v>
+      </c>
+      <c r="G13" s="5">
         <v>3.5760000000000003E-5</v>
       </c>
     </row>
